--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559376.045226499</v>
+        <v>554787.7632024975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29945736.18389926</v>
+        <v>29945736.18389928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6910952.519696834</v>
+        <v>6910952.519696833</v>
       </c>
     </row>
     <row r="9">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>190.1621800425948</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>265.7929751104529</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.8672086063006</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>108.6835547225993</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.5281633465506</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>341.3226105766116</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>61.57838750071833</v>
       </c>
       <c r="U16" t="n">
-        <v>215.8806827417339</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>204.5281633465502</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>35.98635017187576</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2010,13 +2010,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>144.3929177083261</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>242.4613866221823</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.73292901182619</v>
+        <v>257.8241572541895</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H21" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>26.29460830852362</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.3002894498101</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>11.68886025327451</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>187.7990814630196</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U23" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2414,7 +2414,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H24" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T24" t="n">
         <v>135.5747030934602</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>10.05688147548943</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>8.979122281580265</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2063336752453</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>109.4084384818401</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>111.3494606070912</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.69198155551913</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H27" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T27" t="n">
         <v>135.5747030934602</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>178.5402307677575</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>48.82384198018588</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S28" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3271665015756</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>394.6511329867485</v>
+        <v>21.42020858791872</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2888,7 +2888,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H30" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T30" t="n">
         <v>135.5747030934602</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.23461805044711</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5780456014529</v>
+        <v>110.9398455876072</v>
       </c>
       <c r="H31" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>68.2063336752453</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S31" t="n">
         <v>150.7214115632189</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3034,16 +3034,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551913</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T32" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5900972850689</v>
+        <v>115.5818533677475</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>301.8945067016117</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H33" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T33" t="n">
         <v>135.5747030934602</v>
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>98.08321154937299</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S34" t="n">
-        <v>31.23941244264547</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.5633491017144</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551913</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T35" t="n">
         <v>208.7978291248855</v>
@@ -3325,16 +3325,16 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>4.315536791620777</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>7.366255317400357</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H36" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T36" t="n">
         <v>135.5747030934602</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>8.979122281578519</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>67.91307270916809</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S37" t="n">
         <v>150.7214115632189</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>182.8993680676842</v>
       </c>
       <c r="D38" t="n">
-        <v>385.8826147488364</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551913</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T38" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H39" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T39" t="n">
         <v>135.5747030934602</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>79.94230157426955</v>
       </c>
       <c r="F40" t="n">
-        <v>84.82694442601809</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.5780456014529</v>
@@ -3681,7 +3681,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
-        <v>68.2063336752453</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S40" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U40" t="n">
         <v>277.3271665015756</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>80.84687092262507</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>340.1591831914249</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3836,7 +3836,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H42" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T42" t="n">
         <v>135.5747030934602</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3909,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>73.7672914591728</v>
       </c>
       <c r="G43" t="n">
         <v>163.5780456014529</v>
@@ -3918,7 +3918,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
         <v>277.3271665015756</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>173.832192701794</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>314.336304124549</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>89.24228737454355</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279142</v>
+        <v>41.13403413279141</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413505</v>
+        <v>57.99300189413503</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>76.26855209531494</v>
       </c>
       <c r="E46" t="n">
-        <v>112.7771609700328</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>68.2063336752453</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>150.7214115632189</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3271665015756</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>862.1607364635925</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>862.1607364635925</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1621.725293775579</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1264.235878901828</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W11" t="n">
-        <v>867.8445292021752</v>
+        <v>1267.498006508702</v>
       </c>
       <c r="X11" t="n">
-        <v>456.1245303699224</v>
+        <v>1267.498006508702</v>
       </c>
       <c r="Y11" t="n">
-        <v>456.1245303699224</v>
+        <v>862.1607364635925</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5117,31 +5117,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
@@ -5150,22 +5150,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.2487291994763</v>
+        <v>358.1809649552344</v>
       </c>
       <c r="C13" t="n">
-        <v>36.27616607839228</v>
+        <v>358.1809649552344</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G13" t="n">
         <v>36.27616607839228</v>
@@ -5199,22 +5199,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>587.5520906000656</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M13" t="n">
-        <v>685.6054381776848</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N13" t="n">
-        <v>1134.522993397789</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O13" t="n">
-        <v>1583.440548617894</v>
+        <v>1551.168500774583</v>
       </c>
       <c r="P13" t="n">
         <v>1773.863841351391</v>
@@ -5229,22 +5229,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1704.026935512948</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1423.885233995453</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.173766603482</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W13" t="n">
-        <v>867.3213627759948</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X13" t="n">
-        <v>624.7574662217999</v>
+        <v>774.689701977558</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.4146979115419</v>
+        <v>548.3469336673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,7 +5296,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
         <v>1740.92751718922</v>
@@ -5311,10 +5311,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U14" t="n">
-        <v>1607.214199529158</v>
+        <v>1555.593163543254</v>
       </c>
       <c r="V14" t="n">
-        <v>1249.724784655408</v>
+        <v>1198.103748669504</v>
       </c>
       <c r="W14" t="n">
         <v>853.3334349557547</v>
@@ -5323,7 +5323,7 @@
         <v>441.613436123502</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274046</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>653.1035252084196</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.021080428524</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.1105034249158</v>
+        <v>676.7587204718985</v>
       </c>
       <c r="C16" t="n">
-        <v>208.1379403038318</v>
+        <v>504.7861573508145</v>
       </c>
       <c r="D16" t="n">
-        <v>208.1379403038318</v>
+        <v>504.7861573508145</v>
       </c>
       <c r="E16" t="n">
-        <v>208.1379403038318</v>
+        <v>338.577951503668</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27616607839227</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839227</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
         <v>148.0721041840598</v>
@@ -5442,46 +5442,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N16" t="n">
-        <v>1454.169794682635</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O16" t="n">
-        <v>1540.462922504959</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1739.80706151911</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.747008220892</v>
+        <v>1459.665360001615</v>
       </c>
       <c r="V16" t="n">
-        <v>1314.035540828921</v>
+        <v>1177.953892609643</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.183137001434</v>
+        <v>903.1014887821565</v>
       </c>
       <c r="X16" t="n">
-        <v>796.6192404472395</v>
+        <v>903.1014887821565</v>
       </c>
       <c r="Y16" t="n">
-        <v>570.2764721369815</v>
+        <v>676.7587204718985</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839227</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839227</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149078</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1607.214199529158</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1607.214199529158</v>
+        <v>1499.625910487063</v>
       </c>
       <c r="V17" t="n">
-        <v>1249.724784655408</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="W17" t="n">
-        <v>853.3334349557547</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="X17" t="n">
-        <v>441.613436123502</v>
+        <v>1142.136495613312</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27616607839227</v>
+        <v>1142.136495613312</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>267.1899758967555</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>443.8288267274044</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>653.1035252084193</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N18" t="n">
-        <v>870.2585070407355</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1319.17606226084</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P18" t="n">
         <v>1580.47441747923</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.4869141739039</v>
+        <v>543.4272762981451</v>
       </c>
       <c r="C19" t="n">
-        <v>683.5143510528198</v>
+        <v>371.4547131770611</v>
       </c>
       <c r="D19" t="n">
-        <v>520.1975781795906</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
-        <v>353.9893723324441</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>182.1275981070045</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
@@ -5682,43 +5682,43 @@
         <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>703.7823482166191</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.699903436723</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259048</v>
+        <v>1540.462922504959</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973491</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251773</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.34008308337</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.198381565875</v>
+        <v>1568.897812382056</v>
       </c>
       <c r="V19" t="n">
-        <v>855.4869141739039</v>
+        <v>1287.186344990085</v>
       </c>
       <c r="W19" t="n">
-        <v>855.4869141739039</v>
+        <v>1012.333941162598</v>
       </c>
       <c r="X19" t="n">
-        <v>855.4869141739039</v>
+        <v>769.7700446084031</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.4869141739039</v>
+        <v>543.4272762981451</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>741.3761070387122</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="C20" t="n">
-        <v>741.3761070387122</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="D20" t="n">
-        <v>741.3761070387122</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="E20" t="n">
-        <v>741.3761070387122</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872707</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5770,34 +5770,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919613</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543253</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V20" t="n">
-        <v>1198.103748669503</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W20" t="n">
-        <v>801.7123989698498</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X20" t="n">
-        <v>801.7123989698498</v>
+        <v>721.8287895598905</v>
       </c>
       <c r="Y20" t="n">
-        <v>801.7123989698498</v>
+        <v>721.8287895598905</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D21" t="n">
         <v>372.090925376027</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255155</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967555</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>443.8288267274044</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1035252084193</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>870.2585070407354</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1065.302174028222</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1514.219729248326</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873.0242029511235</v>
+        <v>537.6629190242076</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0516398300394</v>
+        <v>537.6629190242076</v>
       </c>
       <c r="D22" t="n">
-        <v>537.7348669568102</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="E22" t="n">
-        <v>371.5266611096637</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F22" t="n">
-        <v>199.6648868842241</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>556.3346842424261</v>
+        <v>587.5520906000655</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.25223946253</v>
+        <v>1036.46964582017</v>
       </c>
       <c r="N22" t="n">
-        <v>1454.169794682635</v>
+        <v>1485.387201040274</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.749235832355</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973491</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919613</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919613</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919613</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.808303919613</v>
+        <v>1526.956655509926</v>
       </c>
       <c r="V22" t="n">
-        <v>1532.096836527642</v>
+        <v>1245.245188117955</v>
       </c>
       <c r="W22" t="n">
-        <v>1532.096836527642</v>
+        <v>970.3927842904681</v>
       </c>
       <c r="X22" t="n">
-        <v>1289.532939973447</v>
+        <v>727.8288877362731</v>
       </c>
       <c r="Y22" t="n">
-        <v>1063.190171663189</v>
+        <v>727.8288877362731</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>239.4644960668094</v>
+        <v>1602.19979610929</v>
       </c>
       <c r="C23" t="n">
-        <v>239.4644960668094</v>
+        <v>1175.29906612259</v>
       </c>
       <c r="D23" t="n">
-        <v>239.4644960668094</v>
+        <v>1175.29906612259</v>
       </c>
       <c r="E23" t="n">
-        <v>239.4644960668094</v>
+        <v>749.3221262704474</v>
       </c>
       <c r="F23" t="n">
-        <v>239.4644960668094</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G23" t="n">
-        <v>49.76845418497138</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I23" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K23" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M23" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P23" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q23" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="T23" t="n">
-        <v>2488.422709248569</v>
+        <v>2277.515811142625</v>
       </c>
       <c r="U23" t="n">
-        <v>2230.250893809105</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="V23" t="n">
-        <v>1872.761478935355</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="W23" t="n">
-        <v>1476.370129235702</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="X23" t="n">
-        <v>1064.650130403449</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="Y23" t="n">
-        <v>659.3128603583394</v>
+        <v>1614.006725658052</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432215</v>
+        <v>75.07978914432218</v>
       </c>
       <c r="J24" t="n">
-        <v>183.4593521567757</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K24" t="n">
-        <v>355.0869125144405</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L24" t="n">
-        <v>593.3887605094963</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M24" t="n">
-        <v>874.6212682256951</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N24" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P24" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R24" t="n">
         <v>1817.643160879484</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600.583008127629</v>
+        <v>600.5830081276299</v>
       </c>
       <c r="C25" t="n">
-        <v>590.424541990771</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="D25" t="n">
-        <v>590.424541990771</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="E25" t="n">
-        <v>590.424541990771</v>
+        <v>262.4022391593994</v>
       </c>
       <c r="F25" t="n">
-        <v>418.5627677653314</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G25" t="n">
         <v>253.3324186729547</v>
@@ -6144,55 +6144,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J25" t="n">
-        <v>150.5499821493616</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K25" t="n">
-        <v>246.6960581639049</v>
+        <v>274.543552450829</v>
       </c>
       <c r="L25" t="n">
-        <v>750.9785192448903</v>
+        <v>402.4371199406495</v>
       </c>
       <c r="M25" t="n">
-        <v>1299.889305614171</v>
+        <v>951.3479063099303</v>
       </c>
       <c r="N25" t="n">
-        <v>1831.355460126458</v>
+        <v>1482.814060822217</v>
       </c>
       <c r="O25" t="n">
-        <v>2329.004093722541</v>
+        <v>1980.462694418301</v>
       </c>
       <c r="P25" t="n">
-        <v>2428.541312378488</v>
+        <v>2392.756117647555</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.544691879675</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S25" t="n">
-        <v>2335.300841815818</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T25" t="n">
-        <v>2096.347963935298</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.219512923606</v>
+        <v>1816.219512923607</v>
       </c>
       <c r="V25" t="n">
-        <v>1534.508045531634</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.655641704147</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X25" t="n">
         <v>1017.091745149953</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.7489768396946</v>
+        <v>790.7489768396955</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1012.436007620096</v>
+        <v>1304.696511882813</v>
       </c>
       <c r="C26" t="n">
-        <v>585.5352776333966</v>
+        <v>877.7957818961125</v>
       </c>
       <c r="D26" t="n">
-        <v>162.2426568183969</v>
+        <v>877.7957818961125</v>
       </c>
       <c r="E26" t="n">
-        <v>49.76845418497138</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F26" t="n">
-        <v>49.76845418497138</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G26" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H26" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I26" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376788</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385805</v>
       </c>
       <c r="M26" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N26" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O26" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q26" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S26" t="n">
-        <v>2436.208586465216</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T26" t="n">
-        <v>2436.208586465216</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U26" t="n">
-        <v>2178.036771025753</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="V26" t="n">
-        <v>1820.547356152002</v>
+        <v>1820.547356152003</v>
       </c>
       <c r="W26" t="n">
-        <v>1424.156006452349</v>
+        <v>1820.547356152003</v>
       </c>
       <c r="X26" t="n">
-        <v>1012.436007620096</v>
+        <v>1820.547356152003</v>
       </c>
       <c r="Y26" t="n">
-        <v>1012.436007620096</v>
+        <v>1415.210086106893</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432215</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J27" t="n">
-        <v>183.4593521567757</v>
+        <v>183.4593521567748</v>
       </c>
       <c r="K27" t="n">
-        <v>355.0869125144405</v>
+        <v>355.0869125144397</v>
       </c>
       <c r="L27" t="n">
-        <v>593.3887605094963</v>
+        <v>593.3887605094956</v>
       </c>
       <c r="M27" t="n">
-        <v>874.6212682256951</v>
+        <v>874.6212682256946</v>
       </c>
       <c r="N27" t="n">
         <v>1165.638568386506</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>600.583008127629</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C28" t="n">
-        <v>428.610445006545</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D28" t="n">
-        <v>265.2936721333157</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E28" t="n">
-        <v>99.08546628616924</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F28" t="n">
-        <v>49.76845418497138</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G28" t="n">
-        <v>49.76845418497138</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H28" t="n">
-        <v>49.76845418497138</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I28" t="n">
-        <v>49.76845418497138</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362856</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K28" t="n">
-        <v>521.826161564851</v>
+        <v>311.6421778938012</v>
       </c>
       <c r="L28" t="n">
-        <v>1026.108622645836</v>
+        <v>815.9246389747867</v>
       </c>
       <c r="M28" t="n">
-        <v>1213.461927966168</v>
+        <v>1364.835425344068</v>
       </c>
       <c r="N28" t="n">
-        <v>1744.928082478454</v>
+        <v>1896.301579856354</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.874391771335</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P28" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.544691879675</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S28" t="n">
-        <v>2335.300841815818</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T28" t="n">
-        <v>2096.347963935298</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.219512923606</v>
+        <v>2055.172390804126</v>
       </c>
       <c r="V28" t="n">
-        <v>1534.508045531634</v>
+        <v>1773.460923412155</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.655641704147</v>
+        <v>1498.608519584668</v>
       </c>
       <c r="X28" t="n">
-        <v>1017.091745149953</v>
+        <v>1498.608519584668</v>
       </c>
       <c r="Y28" t="n">
-        <v>790.7489768396946</v>
+        <v>1272.26575127441</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.76845418497137</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C29" t="n">
-        <v>49.76845418497137</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D29" t="n">
-        <v>49.76845418497137</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E29" t="n">
-        <v>49.76845418497137</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F29" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="G29" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H29" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147721</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376787</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L29" t="n">
-        <v>829.2827739385796</v>
+        <v>829.28277393858</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N29" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O29" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P29" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q29" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T29" t="n">
-        <v>2277.515811142624</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U29" t="n">
-        <v>2019.34399570316</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="V29" t="n">
-        <v>1661.85458082941</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="W29" t="n">
-        <v>1265.463231129756</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="X29" t="n">
-        <v>853.7432322975037</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="Y29" t="n">
-        <v>448.405962252394</v>
+        <v>1772.699500980644</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D30" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E30" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G30" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H30" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432213</v>
+        <v>75.07978914432218</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0655064016224</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K30" t="n">
-        <v>339.6930667592873</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L30" t="n">
-        <v>577.994914754343</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M30" t="n">
-        <v>859.2274224705418</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N30" t="n">
-        <v>1150.244722631353</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O30" t="n">
         <v>1412.857980714236</v>
       </c>
       <c r="P30" t="n">
-        <v>1620.486649455022</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q30" t="n">
-        <v>1751.169046541191</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R30" t="n">
         <v>1817.643160879484</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>748.0877464857072</v>
+        <v>875.4354119551169</v>
       </c>
       <c r="C31" t="n">
-        <v>748.0877464857072</v>
+        <v>703.4628488340329</v>
       </c>
       <c r="D31" t="n">
-        <v>584.7709736124779</v>
+        <v>703.4628488340329</v>
       </c>
       <c r="E31" t="n">
-        <v>418.5627677653314</v>
+        <v>537.2546429868864</v>
       </c>
       <c r="F31" t="n">
-        <v>418.5627677653314</v>
+        <v>365.3928687614468</v>
       </c>
       <c r="G31" t="n">
         <v>253.3324186729547</v>
@@ -6618,55 +6618,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I31" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362856</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K31" t="n">
-        <v>521.826161564851</v>
+        <v>274.543552450829</v>
       </c>
       <c r="L31" t="n">
-        <v>977.307346170194</v>
+        <v>778.8260135318145</v>
       </c>
       <c r="M31" t="n">
-        <v>1526.218132539475</v>
+        <v>1327.736799901095</v>
       </c>
       <c r="N31" t="n">
-        <v>2057.684287051761</v>
+        <v>1859.202954413382</v>
       </c>
       <c r="O31" t="n">
-        <v>2177.630596344642</v>
+        <v>1979.149263706262</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.167815000588</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.544691879675</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S31" t="n">
-        <v>2335.300841815817</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T31" t="n">
-        <v>2096.347963935298</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U31" t="n">
-        <v>1816.219512923605</v>
+        <v>1816.219512923607</v>
       </c>
       <c r="V31" t="n">
-        <v>1534.508045531634</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W31" t="n">
-        <v>1259.655641704147</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="X31" t="n">
-        <v>1017.091745149952</v>
+        <v>1291.944148977441</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.7489768396941</v>
+        <v>1065.601380667183</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1304.696511882812</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C32" t="n">
-        <v>877.7957818961124</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D32" t="n">
-        <v>877.7957818961124</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E32" t="n">
-        <v>451.8188420439701</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F32" t="n">
-        <v>451.8188420439701</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="G32" t="n">
-        <v>49.76845418497136</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H32" t="n">
-        <v>49.76845418497136</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I32" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376783</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385791</v>
+        <v>829.28277393858</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.099811633996</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901613</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154892</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2382.200022306144</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S32" t="n">
-        <v>2436.208586465215</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T32" t="n">
-        <v>2225.30168835927</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U32" t="n">
-        <v>1967.129872919807</v>
+        <v>2108.552341523164</v>
       </c>
       <c r="V32" t="n">
-        <v>1609.640458046056</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="W32" t="n">
-        <v>1304.696511882812</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="X32" t="n">
-        <v>1304.696511882812</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="Y32" t="n">
-        <v>1304.696511882812</v>
+        <v>1751.062926649413</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D33" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E33" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F33" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G33" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.76845418497136</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432212</v>
+        <v>75.07978914432218</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0655064016224</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K33" t="n">
-        <v>339.6930667592873</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L33" t="n">
-        <v>577.994914754343</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M33" t="n">
-        <v>859.2274224705418</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N33" t="n">
-        <v>1150.244722631353</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O33" t="n">
         <v>1412.857980714236</v>
       </c>
       <c r="P33" t="n">
-        <v>1620.486649455022</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q33" t="n">
-        <v>1751.169046541191</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R33" t="n">
         <v>1817.643160879484</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>722.149913497101</v>
+        <v>1027.679262018974</v>
       </c>
       <c r="C34" t="n">
-        <v>550.177350376017</v>
+        <v>855.7066988978902</v>
       </c>
       <c r="D34" t="n">
-        <v>386.8605775027877</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E34" t="n">
-        <v>386.8605775027877</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F34" t="n">
-        <v>214.9988032773481</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G34" t="n">
-        <v>49.76845418497136</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H34" t="n">
-        <v>49.76845418497136</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I34" t="n">
-        <v>49.76845418497136</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J34" t="n">
-        <v>150.5499821493607</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K34" t="n">
-        <v>246.696058163904</v>
+        <v>521.8261615648511</v>
       </c>
       <c r="L34" t="n">
-        <v>750.9785192448894</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M34" t="n">
-        <v>1299.88930561417</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N34" t="n">
-        <v>1831.355460126457</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O34" t="n">
-        <v>2329.00409372254</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P34" t="n">
-        <v>2428.541312378487</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R34" t="n">
-        <v>2488.422709248568</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S34" t="n">
-        <v>2456.86774718529</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="T34" t="n">
-        <v>2217.91486930477</v>
+        <v>2248.591813999156</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.786418293078</v>
+        <v>1968.463362987464</v>
       </c>
       <c r="V34" t="n">
-        <v>1656.074950901106</v>
+        <v>1686.751895595493</v>
       </c>
       <c r="W34" t="n">
-        <v>1381.222547073619</v>
+        <v>1686.751895595493</v>
       </c>
       <c r="X34" t="n">
-        <v>1138.658650519425</v>
+        <v>1444.187999041298</v>
       </c>
       <c r="Y34" t="n">
-        <v>912.3158822091666</v>
+        <v>1217.84523073104</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.3221262704474</v>
+        <v>1602.19979610929</v>
       </c>
       <c r="C35" t="n">
-        <v>749.3221262704474</v>
+        <v>1175.29906612259</v>
       </c>
       <c r="D35" t="n">
-        <v>749.3221262704474</v>
+        <v>1175.29906612259</v>
       </c>
       <c r="E35" t="n">
         <v>749.3221262704474</v>
@@ -6931,58 +6931,58 @@
         <v>324.1979444598476</v>
       </c>
       <c r="H35" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I35" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376783</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385791</v>
+        <v>829.2827739385799</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633996</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901613</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P35" t="n">
-        <v>2175.730653154892</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
-        <v>2382.200022306144</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2436.208586465215</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T35" t="n">
-        <v>2225.30168835927</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U35" t="n">
-        <v>1967.129872919807</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V35" t="n">
-        <v>1962.770744847463</v>
+        <v>1609.640458046058</v>
       </c>
       <c r="W35" t="n">
-        <v>1566.37939514781</v>
+        <v>1602.19979610929</v>
       </c>
       <c r="X35" t="n">
-        <v>1154.659396315557</v>
+        <v>1602.19979610929</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.3221262704474</v>
+        <v>1602.19979610929</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D36" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E36" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F36" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G36" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I36" t="n">
-        <v>75.07978914432212</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0655064016224</v>
+        <v>183.4593521567748</v>
       </c>
       <c r="K36" t="n">
-        <v>339.6930667592873</v>
+        <v>355.0869125144397</v>
       </c>
       <c r="L36" t="n">
-        <v>577.994914754343</v>
+        <v>593.3887605094956</v>
       </c>
       <c r="M36" t="n">
-        <v>859.2274224705418</v>
+        <v>874.6212682256946</v>
       </c>
       <c r="N36" t="n">
-        <v>1150.244722631353</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O36" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P36" t="n">
-        <v>1620.486649455022</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q36" t="n">
-        <v>1751.169046541191</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R36" t="n">
         <v>1817.643160879484</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.5830081276281</v>
+        <v>790.748976839695</v>
       </c>
       <c r="C37" t="n">
-        <v>428.6104450065441</v>
+        <v>618.776413718611</v>
       </c>
       <c r="D37" t="n">
-        <v>419.5406245201011</v>
+        <v>455.4596408453817</v>
       </c>
       <c r="E37" t="n">
-        <v>253.3324186729547</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F37" t="n">
-        <v>253.3324186729547</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G37" t="n">
-        <v>253.3324186729547</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I37" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="J37" t="n">
-        <v>178.3974764362856</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K37" t="n">
-        <v>521.826161564851</v>
+        <v>443.9044449166302</v>
       </c>
       <c r="L37" t="n">
-        <v>649.7197290546715</v>
+        <v>948.1869059976157</v>
       </c>
       <c r="M37" t="n">
-        <v>1198.630515423952</v>
+        <v>1497.097692366896</v>
       </c>
       <c r="N37" t="n">
-        <v>1730.096669936239</v>
+        <v>1679.981962748559</v>
       </c>
       <c r="O37" t="n">
-        <v>2227.745303532322</v>
+        <v>2177.630596344643</v>
       </c>
       <c r="P37" t="n">
-        <v>2428.541312378487</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.544691879674</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S37" t="n">
-        <v>2335.300841815817</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.347963935297</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.219512923605</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.508045531634</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.655641704147</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X37" t="n">
-        <v>1017.091745149952</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y37" t="n">
-        <v>790.7489768396937</v>
+        <v>790.748976839695</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1967.129872919807</v>
+        <v>234.5152906169757</v>
       </c>
       <c r="C38" t="n">
-        <v>1967.129872919807</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="D38" t="n">
-        <v>1577.349453981588</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="E38" t="n">
-        <v>1151.372514129446</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="F38" t="n">
-        <v>726.2483323188462</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="G38" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H38" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I38" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376783</v>
+        <v>513.2289698376781</v>
       </c>
       <c r="L38" t="n">
         <v>829.2827739385791</v>
@@ -7189,37 +7189,37 @@
         <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.365373791549</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
         <v>2382.200022306145</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S38" t="n">
-        <v>2436.208586465215</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T38" t="n">
-        <v>2225.30168835927</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U38" t="n">
-        <v>1967.129872919807</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="V38" t="n">
-        <v>1967.129872919807</v>
+        <v>1867.812273485521</v>
       </c>
       <c r="W38" t="n">
-        <v>1967.129872919807</v>
+        <v>1471.420923785868</v>
       </c>
       <c r="X38" t="n">
-        <v>1967.129872919807</v>
+        <v>1059.700924953615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1967.129872919807</v>
+        <v>654.3636549085057</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D39" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E39" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F39" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G39" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H39" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432212</v>
+        <v>75.07978914432218</v>
       </c>
       <c r="J39" t="n">
-        <v>183.4593521567757</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K39" t="n">
-        <v>355.0869125144405</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L39" t="n">
-        <v>593.3887605094963</v>
+        <v>577.9949147543434</v>
       </c>
       <c r="M39" t="n">
-        <v>874.6212682256951</v>
+        <v>859.2274224705425</v>
       </c>
       <c r="N39" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O39" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714237</v>
       </c>
       <c r="P39" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q39" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541193</v>
       </c>
       <c r="R39" t="n">
         <v>1817.643160879484</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5358860081478</v>
+        <v>843.1469046818243</v>
       </c>
       <c r="C40" t="n">
-        <v>667.5633228870638</v>
+        <v>671.1743415607402</v>
       </c>
       <c r="D40" t="n">
-        <v>504.2465500138345</v>
+        <v>671.1743415607402</v>
       </c>
       <c r="E40" t="n">
-        <v>504.2465500138345</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F40" t="n">
         <v>418.5627677653314</v>
@@ -7329,55 +7329,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I40" t="n">
-        <v>49.76845418497136</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="J40" t="n">
-        <v>178.3974764362856</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K40" t="n">
-        <v>521.826161564851</v>
+        <v>311.6421778938002</v>
       </c>
       <c r="L40" t="n">
-        <v>684.8817401355629</v>
+        <v>815.9246389747858</v>
       </c>
       <c r="M40" t="n">
-        <v>1233.792526504844</v>
+        <v>1364.835425344067</v>
       </c>
       <c r="N40" t="n">
-        <v>1367.22575817525</v>
+        <v>1896.301579856353</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.874391771334</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P40" t="n">
-        <v>2277.167815000588</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879674</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815817</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T40" t="n">
-        <v>2335.300841815817</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U40" t="n">
-        <v>2055.172390804124</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V40" t="n">
-        <v>1773.460923412153</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.608519584666</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X40" t="n">
-        <v>1256.044623030471</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.701854720214</v>
+        <v>1033.31287339389</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1671.365440371206</v>
+        <v>807.9118383012959</v>
       </c>
       <c r="C41" t="n">
-        <v>1244.464710384506</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="D41" t="n">
-        <v>1244.464710384506</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="E41" t="n">
-        <v>818.4877705323639</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="F41" t="n">
-        <v>393.3635887217641</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G41" t="n">
-        <v>49.76845418497137</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H41" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I41" t="n">
-        <v>102.044297214773</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K41" t="n">
         <v>513.2289698376792</v>
       </c>
       <c r="L41" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385802</v>
       </c>
       <c r="M41" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N41" t="n">
         <v>1549.440265901615</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q41" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S41" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="T41" t="n">
-        <v>2488.422709248568</v>
+        <v>2225.301688359273</v>
       </c>
       <c r="U41" t="n">
-        <v>2488.422709248568</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="V41" t="n">
-        <v>2488.422709248568</v>
+        <v>1609.640458046059</v>
       </c>
       <c r="W41" t="n">
-        <v>2488.422709248568</v>
+        <v>1213.249108346406</v>
       </c>
       <c r="X41" t="n">
-        <v>2076.702710416316</v>
+        <v>1213.249108346406</v>
       </c>
       <c r="Y41" t="n">
-        <v>1671.365440371206</v>
+        <v>807.9118383012959</v>
       </c>
     </row>
     <row r="42">
@@ -7472,34 +7472,34 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D42" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E42" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G42" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I42" t="n">
-        <v>90.47363489947536</v>
+        <v>90.47363489947392</v>
       </c>
       <c r="J42" t="n">
-        <v>183.4593521567757</v>
+        <v>183.4593521567743</v>
       </c>
       <c r="K42" t="n">
-        <v>355.0869125144405</v>
+        <v>355.0869125144393</v>
       </c>
       <c r="L42" t="n">
-        <v>593.3887605094963</v>
+        <v>593.3887605094951</v>
       </c>
       <c r="M42" t="n">
-        <v>874.6212682256951</v>
+        <v>874.6212682256942</v>
       </c>
       <c r="N42" t="n">
         <v>1165.638568386506</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.922083832231</v>
+        <v>753.7048755603814</v>
       </c>
       <c r="C43" t="n">
-        <v>919.9495207111468</v>
+        <v>753.7048755603814</v>
       </c>
       <c r="D43" t="n">
-        <v>756.6327478379175</v>
+        <v>590.3881026871521</v>
       </c>
       <c r="E43" t="n">
-        <v>590.424541990771</v>
+        <v>424.1798968400057</v>
       </c>
       <c r="F43" t="n">
-        <v>418.5627677653314</v>
+        <v>349.6674812246796</v>
       </c>
       <c r="G43" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6637407256232</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I43" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J43" t="n">
-        <v>178.3974764362856</v>
+        <v>150.5499821493627</v>
       </c>
       <c r="K43" t="n">
-        <v>471.7114543771702</v>
+        <v>246.696058163906</v>
       </c>
       <c r="L43" t="n">
-        <v>599.6050218669907</v>
+        <v>750.9785192448916</v>
       </c>
       <c r="M43" t="n">
-        <v>1148.515808236271</v>
+        <v>1299.889305614172</v>
       </c>
       <c r="N43" t="n">
-        <v>1679.981962748558</v>
+        <v>1831.355460126459</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.630596344642</v>
+        <v>2329.004093722543</v>
       </c>
       <c r="P43" t="n">
-        <v>2277.167815000588</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R43" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S43" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="T43" t="n">
-        <v>2488.422709248568</v>
+        <v>2249.469831368051</v>
       </c>
       <c r="U43" t="n">
-        <v>2208.294258236876</v>
+        <v>1969.341380356358</v>
       </c>
       <c r="V43" t="n">
-        <v>1926.582790844905</v>
+        <v>1687.629912964387</v>
       </c>
       <c r="W43" t="n">
-        <v>1750.994717408749</v>
+        <v>1412.7775091369</v>
       </c>
       <c r="X43" t="n">
-        <v>1508.430820854554</v>
+        <v>1170.213612582705</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.088052544296</v>
+        <v>943.8708442724471</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1751.062926649413</v>
+        <v>1729.820693693412</v>
       </c>
       <c r="C44" t="n">
-        <v>1324.162196662713</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="D44" t="n">
-        <v>900.8695758477136</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="E44" t="n">
-        <v>474.8926359955711</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F44" t="n">
-        <v>49.76845418497137</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G44" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H44" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486623</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376788</v>
+        <v>513.2289698376792</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385802</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N44" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154893</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q44" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S44" t="n">
-        <v>2488.422709248568</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="T44" t="n">
-        <v>2488.422709248568</v>
+        <v>2225.301688359273</v>
       </c>
       <c r="U44" t="n">
-        <v>2488.422709248568</v>
+        <v>2225.301688359273</v>
       </c>
       <c r="V44" t="n">
-        <v>2170.911290940943</v>
+        <v>2225.301688359273</v>
       </c>
       <c r="W44" t="n">
-        <v>2170.911290940943</v>
+        <v>2225.301688359273</v>
       </c>
       <c r="X44" t="n">
-        <v>2170.911290940943</v>
+        <v>2135.157963738522</v>
       </c>
       <c r="Y44" t="n">
-        <v>2170.911290940943</v>
+        <v>1729.820693693412</v>
       </c>
     </row>
     <row r="45">
@@ -7709,34 +7709,34 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D45" t="n">
-        <v>382.4949705971605</v>
+        <v>382.4949705971606</v>
       </c>
       <c r="E45" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F45" t="n">
-        <v>184.1472065530019</v>
+        <v>184.147206553002</v>
       </c>
       <c r="G45" t="n">
-        <v>91.3179836120334</v>
+        <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432213</v>
+        <v>75.07978914432219</v>
       </c>
       <c r="J45" t="n">
-        <v>183.4593521567757</v>
+        <v>183.4593521567743</v>
       </c>
       <c r="K45" t="n">
-        <v>355.0869125144405</v>
+        <v>355.0869125144393</v>
       </c>
       <c r="L45" t="n">
-        <v>593.3887605094963</v>
+        <v>593.3887605094951</v>
       </c>
       <c r="M45" t="n">
-        <v>874.6212682256951</v>
+        <v>874.6212682256942</v>
       </c>
       <c r="N45" t="n">
         <v>1165.638568386506</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>876.3134293240093</v>
+        <v>840.4139033770439</v>
       </c>
       <c r="C46" t="n">
-        <v>704.3408662029253</v>
+        <v>668.4413402559599</v>
       </c>
       <c r="D46" t="n">
-        <v>704.3408662029253</v>
+        <v>591.4023987455407</v>
       </c>
       <c r="E46" t="n">
-        <v>590.424541990771</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F46" t="n">
-        <v>418.5627677653314</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G46" t="n">
         <v>253.3324186729547</v>
@@ -7803,55 +7803,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I46" t="n">
-        <v>49.76845418497137</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J46" t="n">
-        <v>150.5499821493611</v>
+        <v>178.3974764362857</v>
       </c>
       <c r="K46" t="n">
-        <v>246.6960581639044</v>
+        <v>521.8261615648511</v>
       </c>
       <c r="L46" t="n">
-        <v>750.9785192448899</v>
+        <v>1026.108622645837</v>
       </c>
       <c r="M46" t="n">
-        <v>1299.889305614171</v>
+        <v>1161.483928552296</v>
       </c>
       <c r="N46" t="n">
-        <v>1831.355460126457</v>
+        <v>1367.225758175252</v>
       </c>
       <c r="O46" t="n">
-        <v>2329.004093722541</v>
+        <v>1864.874391771336</v>
       </c>
       <c r="P46" t="n">
-        <v>2428.541312378487</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R46" t="n">
-        <v>2488.422709248568</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.178859184711</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="T46" t="n">
-        <v>2097.225981304191</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="U46" t="n">
-        <v>1817.097530292499</v>
+        <v>2056.050408173021</v>
       </c>
       <c r="V46" t="n">
-        <v>1535.386062900528</v>
+        <v>1774.338940781049</v>
       </c>
       <c r="W46" t="n">
-        <v>1535.386062900528</v>
+        <v>1499.486536953562</v>
       </c>
       <c r="X46" t="n">
-        <v>1292.822166346333</v>
+        <v>1256.922640399368</v>
       </c>
       <c r="Y46" t="n">
-        <v>1066.479398036075</v>
+        <v>1030.57987208911</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.06963836310769</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>120.8910955478398</v>
+        <v>153.4891236723963</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>131.3248032493603</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P16" t="n">
-        <v>11.40031649231994</v>
+        <v>147.8754625841162</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>70.37539003541789</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.4382709420379</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>108.9901417899371</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>49.89324888542811</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779357</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>164.3028390962585</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.92392750596331</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479647</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779357</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O22" t="n">
-        <v>11.40031649231982</v>
+        <v>132.7701054016732</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.5493391466194</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.5800225871685</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>36.14666134437731</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661844</v>
       </c>
       <c r="J27" t="n">
-        <v>15.5493391466194</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>37.47335903330524</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>52.5030297109821</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>15.54933914661953</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>330.8965829449723</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>200.4861945842227</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>15.54933914661953</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>50.58002258716759</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>73.03898783085836</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.54933914661845</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>15.54933914661953</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>49.95054415278386</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>102.2816062527454</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-3.591643842063956e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.54933914661943</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>15.5493391466181</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>37.47335903330428</v>
       </c>
       <c r="L40" t="n">
-        <v>35.51718290999142</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.54933914661942</v>
+        <v>15.54933914661791</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>50.58002258716952</v>
       </c>
       <c r="K43" t="n">
-        <v>199.1594968952943</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.54933914661942</v>
+        <v>15.54933914661791</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.58002258716805</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>73.0389878308583</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>65.47080893000125</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>126.6344610922037</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>6.816396538196386</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,7 +23430,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23469,10 +23469,10 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9073711041193</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>51.1048256260454</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>51.10482562604494</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>176.0125383260003</v>
       </c>
       <c r="U16" t="n">
-        <v>61.4596017605865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.616645305212732</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>219.6466388007203</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.42562457344696</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>34.87889788013808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>355.9169516367886</v>
+        <v>157.8257233944253</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23986,7 +23986,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.5239339732495</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
@@ -24183,19 +24183,19 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>5.039995052510221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>403.9610203953402</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2308025173891</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551913</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>160.1959560143837</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>161.1640342016049</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>306.2414421667746</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>310.3677098465297</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.6851953721275</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.724078257187443</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>121.3193145029993</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.99874766186628</v>
+        <v>394.229672060696</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.0298839804087</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.0296909744979</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>52.63820001384573</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H32" t="n">
         <v>271.6851953721275</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>140.0082439173214</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>90.53292950104486</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63.600393595124</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.2063336752453</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952047111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>119.4819991205734</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>349.5989839333922</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>385.0611808852562</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>152.7044828629185</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>96.63305107950688</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>239.7323546191487</v>
       </c>
       <c r="D38" t="n">
-        <v>33.17707985801326</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>84.60382221440543</v>
       </c>
       <c r="F40" t="n">
-        <v>85.31621205716709</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>341.7848517642078</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>57.87070078898382</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>96.37586502401238</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S43" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>98.27168708741809</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>271.6851953721275</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.69198155551913</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>39.57821660046403</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>318.3605114693867</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>85.41505304918205</v>
       </c>
       <c r="E46" t="n">
-        <v>51.76896281864219</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952047111</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356997.216790127</v>
+        <v>356997.2167901272</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356997.2167901272</v>
+        <v>356997.2167901273</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.2775417289</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430300.2775417288</v>
+        <v>430300.2775417287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.2775417289</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>430300.2775417286</v>
+        <v>430300.2775417289</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.2775417289</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.2775417289</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.277541729</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430300.2775417287</v>
+        <v>430300.277541729</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>372942.1874182113</v>
       </c>
       <c r="E2" t="n">
-        <v>199900.0674504389</v>
+        <v>199900.0674504388</v>
       </c>
       <c r="F2" t="n">
         <v>199900.0674504389</v>
       </c>
       <c r="G2" t="n">
-        <v>199900.0674504387</v>
+        <v>199900.0674504389</v>
       </c>
       <c r="H2" t="n">
-        <v>199900.0674504387</v>
+        <v>199900.0674504389</v>
       </c>
       <c r="I2" t="n">
         <v>245442.6907414093</v>
@@ -26343,16 +26343,16 @@
         <v>245442.6907414093</v>
       </c>
       <c r="L2" t="n">
-        <v>245442.6907414093</v>
+        <v>245442.6907414094</v>
       </c>
       <c r="M2" t="n">
         <v>245442.6907414093</v>
       </c>
       <c r="N2" t="n">
-        <v>245442.6907414092</v>
+        <v>245442.6907414093</v>
       </c>
       <c r="O2" t="n">
-        <v>245442.6907414092</v>
+        <v>245442.6907414094</v>
       </c>
       <c r="P2" t="n">
         <v>245442.6907414093</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481053.6498424916</v>
+        <v>481053.6498424917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>319793.7510853995</v>
       </c>
       <c r="E4" t="n">
-        <v>19098.00660565761</v>
+        <v>19098.0066056576</v>
       </c>
       <c r="F4" t="n">
         <v>19098.00660565759</v>
@@ -26438,13 +26438,13 @@
         <v>19098.0066056576</v>
       </c>
       <c r="I4" t="n">
-        <v>15432.09135568979</v>
+        <v>15432.09135568978</v>
       </c>
       <c r="J4" t="n">
-        <v>15432.09135568979</v>
+        <v>15432.09135568978</v>
       </c>
       <c r="K4" t="n">
-        <v>15432.09135568979</v>
+        <v>15432.09135568978</v>
       </c>
       <c r="L4" t="n">
         <v>15432.09135568978</v>
@@ -26453,13 +26453,13 @@
         <v>15432.09135568978</v>
       </c>
       <c r="N4" t="n">
+        <v>15432.09135568973</v>
+      </c>
+      <c r="O4" t="n">
         <v>15432.09135568978</v>
       </c>
-      <c r="O4" t="n">
-        <v>15432.09135568979</v>
-      </c>
       <c r="P4" t="n">
-        <v>15432.09135568979</v>
+        <v>15432.09135568977</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576627</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576627</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576628</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.82600576628</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.8260057663</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.82600576626</v>
+        <v>50110.8260057663</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19520.8363328118</v>
+        <v>19499.12269131545</v>
       </c>
       <c r="C6" t="n">
-        <v>19520.83633281186</v>
+        <v>19499.12269131551</v>
       </c>
       <c r="D6" t="n">
-        <v>19520.8363328118</v>
+        <v>19499.12269131545</v>
       </c>
       <c r="E6" t="n">
-        <v>-337200.8898107518</v>
+        <v>-337888.150067509</v>
       </c>
       <c r="F6" t="n">
-        <v>143852.7600317397</v>
+        <v>143165.4997749827</v>
       </c>
       <c r="G6" t="n">
-        <v>143852.7600317396</v>
+        <v>143165.4997749827</v>
       </c>
       <c r="H6" t="n">
-        <v>143852.7600317396</v>
+        <v>143165.4997749828</v>
       </c>
       <c r="I6" t="n">
-        <v>34659.85931033688</v>
+        <v>34147.76298931434</v>
       </c>
       <c r="J6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
       <c r="K6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
       <c r="L6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
       <c r="M6" t="n">
-        <v>66897.70223745734</v>
+        <v>66385.60591643493</v>
       </c>
       <c r="N6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
       <c r="O6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
       <c r="P6" t="n">
-        <v>179899.7733799532</v>
+        <v>179387.6770589308</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517445</v>
       </c>
       <c r="J3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517445</v>
       </c>
       <c r="K3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517445</v>
       </c>
       <c r="L3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517445</v>
       </c>
       <c r="M3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517445</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517446</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517446</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517443</v>
+        <v>563.6147167517446</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>453.4520759799034</v>
+      </c>
+      <c r="F4" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>453.4520759799035</v>
+      </c>
+      <c r="H4" t="n">
         <v>453.4520759799034</v>
       </c>
-      <c r="G4" t="n">
-        <v>453.4520759799033</v>
-      </c>
-      <c r="H4" t="n">
-        <v>453.4520759799033</v>
-      </c>
       <c r="I4" t="n">
-        <v>622.1056773121422</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121422</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="L4" t="n">
-        <v>622.105677312142</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="M4" t="n">
-        <v>622.105677312142</v>
+        <v>622.1056773121423</v>
       </c>
       <c r="N4" t="n">
-        <v>622.105677312142</v>
+        <v>622.1056773121423</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121426</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121421</v>
+        <v>622.1056773121426</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32244,16 +32244,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,31 +32323,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32499,10 +32499,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32642,28 +32642,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H23" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I23" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224778</v>
       </c>
       <c r="J23" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K23" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L23" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012097</v>
       </c>
       <c r="M23" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968231</v>
       </c>
       <c r="N23" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007262</v>
       </c>
       <c r="O23" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044442</v>
       </c>
       <c r="P23" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429017</v>
       </c>
       <c r="Q23" t="n">
         <v>244.6795929391957</v>
@@ -32736,10 +32736,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S23" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007188</v>
       </c>
       <c r="T23" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927682</v>
       </c>
       <c r="U23" t="n">
         <v>0.1812630244829729</v>
@@ -32785,43 +32785,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I24" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944523</v>
       </c>
       <c r="J24" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K24" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L24" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297007</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628462</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776592</v>
       </c>
       <c r="P24" t="n">
-        <v>231.4967692258249</v>
+        <v>231.496769225825</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R24" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620471</v>
       </c>
       <c r="S24" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022298</v>
       </c>
       <c r="T24" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838236</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034123</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H25" t="n">
-        <v>9.036314639068955</v>
+        <v>9.036314639068959</v>
       </c>
       <c r="I25" t="n">
-        <v>30.56454890188148</v>
+        <v>30.56454890188149</v>
       </c>
       <c r="J25" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308715</v>
       </c>
       <c r="K25" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L25" t="n">
         <v>151.1041816025906</v>
@@ -32879,28 +32879,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N25" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O25" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P25" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951341</v>
       </c>
       <c r="R25" t="n">
-        <v>45.69898998449387</v>
+        <v>45.69898998449389</v>
       </c>
       <c r="S25" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T25" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644587</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H26" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I26" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224778</v>
       </c>
       <c r="J26" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L26" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012097</v>
       </c>
       <c r="M26" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968231</v>
       </c>
       <c r="N26" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007262</v>
       </c>
       <c r="O26" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044442</v>
       </c>
       <c r="P26" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429017</v>
       </c>
       <c r="Q26" t="n">
         <v>244.6795929391957</v>
@@ -32973,10 +32973,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S26" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007188</v>
       </c>
       <c r="T26" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927682</v>
       </c>
       <c r="U26" t="n">
         <v>0.1812630244829729</v>
@@ -33022,43 +33022,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I27" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944523</v>
       </c>
       <c r="J27" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K27" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297007</v>
       </c>
       <c r="N27" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628462</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776592</v>
       </c>
       <c r="P27" t="n">
-        <v>231.4967692258249</v>
+        <v>231.496769225825</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R27" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620471</v>
       </c>
       <c r="S27" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022298</v>
       </c>
       <c r="T27" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838236</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034123</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H28" t="n">
-        <v>9.036314639068955</v>
+        <v>9.036314639068959</v>
       </c>
       <c r="I28" t="n">
-        <v>30.56454890188148</v>
+        <v>30.56454890188149</v>
       </c>
       <c r="J28" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308715</v>
       </c>
       <c r="K28" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L28" t="n">
         <v>151.1041816025906</v>
@@ -33116,28 +33116,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N28" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O28" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P28" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951341</v>
       </c>
       <c r="R28" t="n">
-        <v>45.69898998449387</v>
+        <v>45.69898998449389</v>
       </c>
       <c r="S28" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T28" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644587</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H29" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I29" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224778</v>
       </c>
       <c r="J29" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K29" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L29" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012097</v>
       </c>
       <c r="M29" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968231</v>
       </c>
       <c r="N29" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007262</v>
       </c>
       <c r="O29" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044442</v>
       </c>
       <c r="P29" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429017</v>
       </c>
       <c r="Q29" t="n">
         <v>244.6795929391957</v>
@@ -33210,10 +33210,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S29" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007188</v>
       </c>
       <c r="T29" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927682</v>
       </c>
       <c r="U29" t="n">
         <v>0.1812630244829729</v>
@@ -33259,43 +33259,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I30" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944523</v>
       </c>
       <c r="J30" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K30" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L30" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M30" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297007</v>
       </c>
       <c r="N30" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628462</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776592</v>
       </c>
       <c r="P30" t="n">
-        <v>231.4967692258249</v>
+        <v>231.496769225825</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R30" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620471</v>
       </c>
       <c r="S30" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022298</v>
       </c>
       <c r="T30" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838236</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034123</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H31" t="n">
-        <v>9.036314639068955</v>
+        <v>9.036314639068959</v>
       </c>
       <c r="I31" t="n">
-        <v>30.56454890188148</v>
+        <v>30.56454890188149</v>
       </c>
       <c r="J31" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308715</v>
       </c>
       <c r="K31" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L31" t="n">
         <v>151.1041816025906</v>
@@ -33353,28 +33353,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N31" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O31" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P31" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951341</v>
       </c>
       <c r="R31" t="n">
-        <v>45.69898998449387</v>
+        <v>45.69898998449389</v>
       </c>
       <c r="S31" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T31" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644587</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H32" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I32" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224778</v>
       </c>
       <c r="J32" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K32" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L32" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012097</v>
       </c>
       <c r="M32" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968231</v>
       </c>
       <c r="N32" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007262</v>
       </c>
       <c r="O32" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044442</v>
       </c>
       <c r="P32" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429017</v>
       </c>
       <c r="Q32" t="n">
         <v>244.6795929391957</v>
@@ -33447,10 +33447,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S32" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007188</v>
       </c>
       <c r="T32" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927682</v>
       </c>
       <c r="U32" t="n">
         <v>0.1812630244829729</v>
@@ -33496,43 +33496,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I33" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944523</v>
       </c>
       <c r="J33" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K33" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M33" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297007</v>
       </c>
       <c r="N33" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628462</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776592</v>
       </c>
       <c r="P33" t="n">
-        <v>231.4967692258249</v>
+        <v>231.496769225825</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R33" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620471</v>
       </c>
       <c r="S33" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022298</v>
       </c>
       <c r="T33" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838236</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034123</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H34" t="n">
-        <v>9.036314639068955</v>
+        <v>9.036314639068959</v>
       </c>
       <c r="I34" t="n">
-        <v>30.56454890188148</v>
+        <v>30.56454890188149</v>
       </c>
       <c r="J34" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308715</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L34" t="n">
         <v>151.1041816025906</v>
@@ -33590,28 +33590,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N34" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O34" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951341</v>
       </c>
       <c r="R34" t="n">
-        <v>45.69898998449387</v>
+        <v>45.69898998449389</v>
       </c>
       <c r="S34" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T34" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644587</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H35" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I35" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224778</v>
       </c>
       <c r="J35" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K35" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L35" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012097</v>
       </c>
       <c r="M35" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968231</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007262</v>
       </c>
       <c r="O35" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044442</v>
       </c>
       <c r="P35" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429017</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6795929391957</v>
@@ -33684,10 +33684,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S35" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007188</v>
       </c>
       <c r="T35" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927682</v>
       </c>
       <c r="U35" t="n">
         <v>0.1812630244829729</v>
@@ -33733,43 +33733,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I36" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944523</v>
       </c>
       <c r="J36" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K36" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L36" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M36" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297007</v>
       </c>
       <c r="N36" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628462</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776592</v>
       </c>
       <c r="P36" t="n">
-        <v>231.4967692258249</v>
+        <v>231.496769225825</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R36" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620471</v>
       </c>
       <c r="S36" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022298</v>
       </c>
       <c r="T36" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838236</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034123</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H37" t="n">
-        <v>9.036314639068955</v>
+        <v>9.036314639068959</v>
       </c>
       <c r="I37" t="n">
-        <v>30.56454890188148</v>
+        <v>30.56454890188149</v>
       </c>
       <c r="J37" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308715</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L37" t="n">
         <v>151.1041816025906</v>
@@ -33827,28 +33827,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N37" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O37" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P37" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951341</v>
       </c>
       <c r="R37" t="n">
-        <v>45.69898998449387</v>
+        <v>45.69898998449389</v>
       </c>
       <c r="S37" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T37" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644587</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H38" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I38" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J38" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K38" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L38" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M38" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N38" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007263</v>
       </c>
       <c r="O38" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P38" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391958</v>
       </c>
       <c r="R38" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S38" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T38" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H39" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I39" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J39" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K39" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L39" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M39" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P39" t="n">
-        <v>231.4967692258249</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R39" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S39" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T39" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H40" t="n">
-        <v>9.036314639068955</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I40" t="n">
-        <v>30.56454890188148</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J40" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K40" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L40" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M40" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N40" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O40" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P40" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R40" t="n">
-        <v>45.69898998449387</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S40" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T40" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H41" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J41" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K41" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M41" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007263</v>
       </c>
       <c r="O41" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391958</v>
       </c>
       <c r="R41" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H42" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K42" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L42" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P42" t="n">
-        <v>231.4967692258249</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.036314639068955</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I43" t="n">
-        <v>30.56454890188148</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L43" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M43" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N43" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P43" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R43" t="n">
-        <v>45.69898998449387</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S43" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.265787806037161</v>
+        <v>2.265787806037162</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857808</v>
+        <v>23.20449936857809</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224774</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321998</v>
+        <v>288.2167056321999</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012096</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M44" t="n">
-        <v>397.852513096823</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007261</v>
+        <v>404.2901827007263</v>
       </c>
       <c r="O44" t="n">
-        <v>381.759755204444</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429016</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391952</v>
       </c>
       <c r="R44" t="n">
-        <v>142.3282932709818</v>
+        <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007186</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927678</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944522</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117827</v>
+        <v>195.7604059117828</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2240240829727</v>
+        <v>263.2240240829728</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297006</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628461</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776591</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P45" t="n">
-        <v>231.4967692258249</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.7494595881393</v>
+        <v>154.7494595881394</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620466</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022297</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838234</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034121</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.036314639068955</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I46" t="n">
-        <v>30.56454890188148</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308712</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522506</v>
+        <v>118.0819029522507</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N46" t="n">
-        <v>155.5299430669199</v>
+        <v>155.52994306692</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9234457650033</v>
+        <v>122.9234457650034</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951338</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R46" t="n">
-        <v>45.69898998449387</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S46" t="n">
-        <v>17.71228544283759</v>
+        <v>17.7122854428376</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644586</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312244</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.4541918727095</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M13" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P13" t="n">
-        <v>192.3467603368659</v>
+        <v>224.9447884614223</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
@@ -35737,16 +35737,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>328.3386082872257</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35810,22 +35810,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810536</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>82.85598128134603</v>
+        <v>219.3311273731423</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326162</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242576</v>
+        <v>281.7639743596755</v>
       </c>
       <c r="N18" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>453.4520759799033</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>263.9377325438285</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960184</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36047,22 +36047,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365869</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>148.9370343173667</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810535</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>235.7585038852846</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326159</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>453.4520759799033</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.3084810155651</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R21" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365866</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O22" t="n">
-        <v>98.56509207042514</v>
+        <v>219.9348809797786</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902606</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828428</v>
       </c>
       <c r="J23" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K23" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L23" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685868</v>
       </c>
       <c r="M23" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973913</v>
       </c>
       <c r="N23" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662802</v>
       </c>
       <c r="O23" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484201</v>
       </c>
       <c r="P23" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R23" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944522</v>
+        <v>25.56700500944523</v>
       </c>
       <c r="J24" t="n">
-        <v>109.4743060731854</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K24" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L24" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M24" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N24" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O24" t="n">
-        <v>265.2659172554369</v>
+        <v>265.265917255437</v>
       </c>
       <c r="P24" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206052</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.7995231963538</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K25" t="n">
-        <v>97.11724849953865</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L25" t="n">
-        <v>509.3762233141267</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669501</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073601</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O25" t="n">
-        <v>502.6753874707916</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P25" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.48625946472843</v>
+        <v>96.63292080910577</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828428</v>
       </c>
       <c r="J26" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K26" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L26" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685873</v>
       </c>
       <c r="M26" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973913</v>
       </c>
       <c r="N26" t="n">
         <v>367.0105598662802</v>
       </c>
       <c r="O26" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484201</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J27" t="n">
-        <v>109.4743060731854</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K27" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L27" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M27" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N27" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O27" t="n">
-        <v>265.2659172554369</v>
+        <v>265.265917255437</v>
       </c>
       <c r="P27" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R27" t="n">
-        <v>51.59623089206052</v>
+        <v>51.59623089206056</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043578</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8976617460256</v>
+        <v>134.5906075328439</v>
       </c>
       <c r="L28" t="n">
-        <v>509.3762233141267</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M28" t="n">
-        <v>189.2457629498295</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N28" t="n">
-        <v>536.8344995073601</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O28" t="n">
-        <v>121.1578881746267</v>
+        <v>121.1578881746268</v>
       </c>
       <c r="P28" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828428</v>
       </c>
       <c r="J29" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K29" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685868</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973913</v>
       </c>
       <c r="N29" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662802</v>
       </c>
       <c r="O29" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484201</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R29" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944522</v>
+        <v>25.56700500944523</v>
       </c>
       <c r="J30" t="n">
-        <v>93.92496692656596</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K30" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L30" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M30" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N30" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O30" t="n">
-        <v>265.2659172554369</v>
+        <v>265.265917255437</v>
       </c>
       <c r="P30" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R30" t="n">
-        <v>67.14557003868005</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043578</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L31" t="n">
-        <v>460.0820046518617</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M31" t="n">
-        <v>554.4553397669501</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N31" t="n">
-        <v>536.8344995073601</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O31" t="n">
-        <v>121.1578881746267</v>
+        <v>121.1578881746268</v>
       </c>
       <c r="P31" t="n">
-        <v>100.5426451070168</v>
+        <v>301.0288396912396</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686668</v>
+        <v>213.3887820686669</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828428</v>
       </c>
       <c r="J32" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K32" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L32" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685868</v>
       </c>
       <c r="M32" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973913</v>
       </c>
       <c r="N32" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662802</v>
       </c>
       <c r="O32" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484201</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R32" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944522</v>
+        <v>25.56700500944523</v>
       </c>
       <c r="J33" t="n">
-        <v>93.92496692656596</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L33" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M33" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N33" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O33" t="n">
-        <v>265.2659172554369</v>
+        <v>265.265917255437</v>
       </c>
       <c r="P33" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R33" t="n">
-        <v>67.14557003868005</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.7995231963529</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K34" t="n">
-        <v>97.11724849953865</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L34" t="n">
-        <v>509.3762233141267</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M34" t="n">
-        <v>554.4553397669501</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N34" t="n">
-        <v>536.8344995073601</v>
+        <v>207.820029922178</v>
       </c>
       <c r="O34" t="n">
-        <v>502.6753874707916</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P34" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.48625946472843</v>
+        <v>213.3887820686669</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828428</v>
       </c>
       <c r="J35" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K35" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L35" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685868</v>
       </c>
       <c r="M35" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973913</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662802</v>
       </c>
       <c r="O35" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484201</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q35" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R35" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.56700500944522</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J36" t="n">
-        <v>93.92496692656596</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K36" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M36" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N36" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O36" t="n">
-        <v>265.2659172554369</v>
+        <v>265.265917255437</v>
       </c>
       <c r="P36" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R36" t="n">
-        <v>67.14557003868005</v>
+        <v>51.59623089206056</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.9283053043578</v>
+        <v>51.21950060918529</v>
       </c>
       <c r="K37" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L37" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M37" t="n">
-        <v>554.4553397669501</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N37" t="n">
-        <v>536.8344995073601</v>
+        <v>184.7315862441035</v>
       </c>
       <c r="O37" t="n">
-        <v>502.6753874707916</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P37" t="n">
-        <v>202.8242513597622</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.48625946472843</v>
+        <v>213.3887820686669</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J38" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K38" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373894</v>
       </c>
       <c r="L38" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N38" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662803</v>
       </c>
       <c r="O38" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R38" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944522</v>
+        <v>25.56700500944524</v>
       </c>
       <c r="J39" t="n">
-        <v>109.4743060731854</v>
+        <v>93.92496692656603</v>
       </c>
       <c r="K39" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L39" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M39" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N39" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O39" t="n">
-        <v>265.2659172554369</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R39" t="n">
-        <v>51.59623089206052</v>
+        <v>67.14557003867867</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.9283053043578</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8976617460256</v>
+        <v>134.590607532843</v>
       </c>
       <c r="L40" t="n">
-        <v>164.7026046168808</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M40" t="n">
-        <v>554.4553397669501</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N40" t="n">
-        <v>134.7810420913195</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O40" t="n">
-        <v>502.6753874707916</v>
+        <v>121.1578881746268</v>
       </c>
       <c r="P40" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q40" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472849</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K41" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662803</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q41" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345977</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761855</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.11634415606463</v>
+        <v>41.11634415606315</v>
       </c>
       <c r="J42" t="n">
-        <v>93.92496692656596</v>
+        <v>93.92496692656603</v>
       </c>
       <c r="K42" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O42" t="n">
-        <v>265.2659172554369</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R42" t="n">
-        <v>51.59623089206052</v>
+        <v>51.59623089206058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9283053043578</v>
+        <v>101.7995231963548</v>
       </c>
       <c r="K43" t="n">
-        <v>296.2767453948329</v>
+        <v>97.11724849953872</v>
       </c>
       <c r="L43" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M43" t="n">
-        <v>554.4553397669501</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N43" t="n">
-        <v>536.8344995073601</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O43" t="n">
-        <v>502.6753874707916</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P43" t="n">
-        <v>100.5426451070168</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q43" t="n">
-        <v>213.3887820686668</v>
+        <v>60.48625946472849</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828423</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373904</v>
+        <v>252.4521048373906</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685867</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973911</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662801</v>
+        <v>367.0105598662803</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484199</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326703</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345976</v>
+        <v>208.5549183345971</v>
       </c>
       <c r="R44" t="n">
-        <v>107.2956433761853</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944522</v>
+        <v>25.56700500944524</v>
       </c>
       <c r="J45" t="n">
-        <v>109.4743060731854</v>
+        <v>109.4743060731839</v>
       </c>
       <c r="K45" t="n">
-        <v>173.3611720784494</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687431</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173726</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493044</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O45" t="n">
-        <v>265.2659172554369</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P45" t="n">
-        <v>209.7259280209963</v>
+        <v>209.7259280209964</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.0024212991608</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206052</v>
+        <v>51.59623089206058</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.7995231963533</v>
+        <v>129.9283053043579</v>
       </c>
       <c r="K46" t="n">
-        <v>97.11724849953865</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
-        <v>509.3762233141267</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M46" t="n">
-        <v>554.4553397669501</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>536.8344995073601</v>
+        <v>207.820029922178</v>
       </c>
       <c r="O46" t="n">
-        <v>502.6753874707916</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P46" t="n">
-        <v>100.5426451070168</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.48625946472843</v>
+        <v>213.3887820686669</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
